--- a/2021/data/processed/GCOOS.xlsx
+++ b/2021/data/processed/GCOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2021\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07136BDE-9121-4C80-A62A-5936031F6C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595AAA3-9E46-4D12-9441-A03A541D4E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4151,10 +4151,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
